--- a/biology/Médecine/Inna_Deroussova/Inna_Deroussova.xlsx
+++ b/biology/Médecine/Inna_Deroussova/Inna_Deroussova.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Inna Mykolaïvna Deroussova (ukrainien : Інна Миколаївна Дерусова, russe : Инна Николаевна Дерусова ; née le 5 juillet 1970 et tuée dans un bombardement russe le 26 février 2022) est une médecin militaire ukrainienne qui a été la première femme à recevoir à titre posthume la distinction de Héros d'Ukraine, le plus haut titre honorifique qui peut être décerné par le gouvernement ukrainien. 
@@ -514,13 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie civile
-Inna Mykolaïvna Deroussova est née le 5 juillet 1970[1].  Après avoir terminé des études médicales, elle est infirmière à Kryvyï Rih[1].
-Carrière militaire
-En 2014, au début de la guerre dans le Donbass, le frère d'Inna Deroussova se porte volontaire pour intégrer le 40e bataillon d'infanterie motorisé « Kryvbas » (en)[1].  Deroussova rejoint elle-même les forces armées ukrainiennes en 2015 comme médecin de combat au sein de la 58e brigade d'infanterie motorisée[2]. Elle reçoit l'indicatif d'appel militaire (en) Violette (russe : Фиалка) en référence à la fleur, étant la seule femme de sa brigade[3]. Elle reçoit en outre le grade de sergent[3].
-Au sein de sa brigade, Inna Deroussova dirige la compagnie médicale et forme de nombreux soignants civils à la médecine de guerre[4].
-En 2018, Deroussova se réoriente vers le travail social, afin d'aider l'armée ukrainienne d'une autre manière, en réhabilitant ses soldats à la vie civile[5].  Elle est cependant régulièrement invitée à donner des conférences sur la guerre. Elle obtient son diplôme en 2020, avec une thèse portant sur la réhabilitation des soldats ayant servi en zone ATO/JFO[5].
-Lorsque la Russie lance son invasion de l'Ukraine le 24 février 2022, Inna Deroussova rentre de vacances. Elle s'arrête cependant dans la ville d'Okhtyrka, dans l'oblast de Soumy. Les troupes russes atteignent rapidement cette ville proche de la frontière, et une bataille s'engage, lors de laquelle les Russes utilisent des armes thermobariques. Après avoir passé deux jours à soigner des soldats blessés, Inna Deroussova est tuée le 26 février par un bombardement russe sur son poste de secours, à l'âge de 52 ans[6].
+          <t>Vie civile</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inna Mykolaïvna Deroussova est née le 5 juillet 1970.  Après avoir terminé des études médicales, elle est infirmière à Kryvyï Rih.
 </t>
         </is>
       </c>
@@ -546,15 +558,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Décorations</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le 10 décembre 2021, Deroussova reçoit la médaille du défenseur de la patrie[7]. 
-Elle reçoit en outre plusieurs décorations à titre posthume. Le 12 mars 2022, elle est la première femme à recevoir posthumement le titre de «Héros d'Ukraine», avec l'Ordre de l'Étoile d'Or[8],[2].
-Le 25 mars 2022, elle reçoit, à titre posthume, un prix honorifique de l'université de Ternopil, où elle a étudié de 2018 à 2020[9].
-En avril 2022, une rue de la ville de Moukatchevo qui portait autrefois le nom de la partisane russe Zoïa Kosmodemianskaïa a été rebaptisée en l'honneur de Deroussova[10].
+          <t>Carrière militaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, au début de la guerre dans le Donbass, le frère d'Inna Deroussova se porte volontaire pour intégrer le 40e bataillon d'infanterie motorisé « Kryvbas » (en).  Deroussova rejoint elle-même les forces armées ukrainiennes en 2015 comme médecin de combat au sein de la 58e brigade d'infanterie motorisée. Elle reçoit l'indicatif d'appel militaire (en) Violette (russe : Фиалка) en référence à la fleur, étant la seule femme de sa brigade. Elle reçoit en outre le grade de sergent.
+Au sein de sa brigade, Inna Deroussova dirige la compagnie médicale et forme de nombreux soignants civils à la médecine de guerre.
+En 2018, Deroussova se réoriente vers le travail social, afin d'aider l'armée ukrainienne d'une autre manière, en réhabilitant ses soldats à la vie civile.  Elle est cependant régulièrement invitée à donner des conférences sur la guerre. Elle obtient son diplôme en 2020, avec une thèse portant sur la réhabilitation des soldats ayant servi en zone ATO/JFO.
+Lorsque la Russie lance son invasion de l'Ukraine le 24 février 2022, Inna Deroussova rentre de vacances. Elle s'arrête cependant dans la ville d'Okhtyrka, dans l'oblast de Soumy. Les troupes russes atteignent rapidement cette ville proche de la frontière, et une bataille s'engage, lors de laquelle les Russes utilisent des armes thermobariques. Après avoir passé deux jours à soigner des soldats blessés, Inna Deroussova est tuée le 26 février par un bombardement russe sur son poste de secours, à l'âge de 52 ans.
 </t>
         </is>
       </c>
@@ -580,12 +598,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 10 décembre 2021, Deroussova reçoit la médaille du défenseur de la patrie. 
+Elle reçoit en outre plusieurs décorations à titre posthume. Le 12 mars 2022, elle est la première femme à recevoir posthumement le titre de «Héros d'Ukraine», avec l'Ordre de l'Étoile d'Or,.
+Le 25 mars 2022, elle reçoit, à titre posthume, un prix honorifique de l'université de Ternopil, où elle a étudié de 2018 à 2020.
+En avril 2022, une rue de la ville de Moukatchevo qui portait autrefois le nom de la partisane russe Zoïa Kosmodemianskaïa a été rebaptisée en l'honneur de Deroussova.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Inna_Deroussova</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inna_Deroussova</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Fausse information de mars 2022</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 13 mars 2022, le service de presse du gouvernement ukrainien publie des photos et une vidéo du président ukrainien Volodymyr Zelensky visitant un hôpital militaire de Kiev[11].  Des sources pro-russes telles que RT et l'homme politique ukrainien pro-russe Illia Kiva ont affirmé que les images montraient Zelensky accompagné d'Inna Deroussova, décédée en février, prouvant ainsi selon eux que la visite était préenregistrée ou fausse[12].   La femme qui accompagne Zelensky ce 13 mars est en réalité la commandante des forces médicales (en) ukrainiennes, la générale de brigade Tetiana Ostachtchenko, dont le nom est marqué en toutes lettres sur la bande patronymique de son uniforme[13],[14]. Cette fausse information s'inscrit dans une campagne de propagande russe et pro-russe visant à faire croire que les autorités ukrainiennes avaient fui le pays et que toutes les apparitions officielles de Volodymyr Zelensky étaient fausses[15].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 13 mars 2022, le service de presse du gouvernement ukrainien publie des photos et une vidéo du président ukrainien Volodymyr Zelensky visitant un hôpital militaire de Kiev.  Des sources pro-russes telles que RT et l'homme politique ukrainien pro-russe Illia Kiva ont affirmé que les images montraient Zelensky accompagné d'Inna Deroussova, décédée en février, prouvant ainsi selon eux que la visite était préenregistrée ou fausse.   La femme qui accompagne Zelensky ce 13 mars est en réalité la commandante des forces médicales (en) ukrainiennes, la générale de brigade Tetiana Ostachtchenko, dont le nom est marqué en toutes lettres sur la bande patronymique de son uniforme,. Cette fausse information s'inscrit dans une campagne de propagande russe et pro-russe visant à faire croire que les autorités ukrainiennes avaient fui le pays et que toutes les apparitions officielles de Volodymyr Zelensky étaient fausses.
 </t>
         </is>
       </c>
